--- a/SQL/Analysis/Column Value Frequency Analysis/Column_Frequency_Analysis.xlsx
+++ b/SQL/Analysis/Column Value Frequency Analysis/Column_Frequency_Analysis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AA91212A-EF28-474C-8F30-FB222A011E08}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E35AF2F-DD59-4E9D-8AD4-B4B8C69404E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5370" yWindow="4620" windowWidth="8640" windowHeight="4404" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8446" uniqueCount="3282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8477" uniqueCount="3285">
   <si>
     <t>Column</t>
   </si>
@@ -9885,6 +9885,15 @@
   </si>
   <si>
     <t>Service</t>
+  </si>
+  <si>
+    <t>level_2_cluster_id</t>
+  </si>
+  <si>
+    <t>NULL</t>
+  </si>
+  <si>
+    <t>(No column name)</t>
   </si>
 </sst>
 </file>
@@ -10213,8 +10222,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -10568,7 +10577,7 @@
   <dimension ref="A1:B135"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11660,7 +11669,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -48958,22 +48967,22 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5BBDBC-10EB-4D75-BE23-57ED9EEA5A2B}">
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="17.62890625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="25.89453125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="30.89453125" customWidth="1"/>
     <col min="5" max="5" width="15.41796875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.7890625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>3276</v>
       </c>
@@ -48990,7 +48999,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3280</v>
       </c>
@@ -49007,7 +49016,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
         <v>3277</v>
       </c>
@@ -49024,7 +49033,7 @@
         <v>1299</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>3278</v>
       </c>
@@ -49041,7 +49050,7 @@
         <v>6658</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>3281</v>
       </c>
@@ -49058,7 +49067,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -49075,7 +49084,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="A7" t="s">
         <v>3279</v>
       </c>
@@ -49092,7 +49101,7 @@
         <v>164931</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="D8" t="s">
         <v>19</v>
       </c>
@@ -49103,7 +49112,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="D9" t="s">
         <v>19</v>
       </c>
@@ -49114,7 +49123,7 @@
         <v>4250</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.55000000000000004">
       <c r="D10" t="s">
         <v>20</v>
       </c>
@@ -49124,6 +49133,217 @@
       <c r="F10">
         <v>1100</v>
       </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D13" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s">
+        <v>3276</v>
+      </c>
+      <c r="F13" t="s">
+        <v>3282</v>
+      </c>
+      <c r="G13" t="s">
+        <v>3284</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D14" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" t="s">
+        <v>3279</v>
+      </c>
+      <c r="F14" t="s">
+        <v>3283</v>
+      </c>
+      <c r="G14">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E15" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F15" s="2">
+        <v>43466</v>
+      </c>
+      <c r="G15">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D16" t="s">
+        <v>18</v>
+      </c>
+      <c r="E16" t="s">
+        <v>3281</v>
+      </c>
+      <c r="F16" s="2">
+        <v>43467</v>
+      </c>
+      <c r="G16">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="17" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D17" t="s">
+        <v>18</v>
+      </c>
+      <c r="E17" t="s">
+        <v>3280</v>
+      </c>
+      <c r="F17" s="2">
+        <v>43466</v>
+      </c>
+      <c r="G17">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="18" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E18" t="s">
+        <v>3280</v>
+      </c>
+      <c r="F18" s="2">
+        <v>43467</v>
+      </c>
+      <c r="G18">
+        <v>6548</v>
+      </c>
+    </row>
+    <row r="19" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D19" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>3277</v>
+      </c>
+      <c r="F19" s="2">
+        <v>43467</v>
+      </c>
+      <c r="G19">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="20" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D20" t="s">
+        <v>18</v>
+      </c>
+      <c r="E20" t="s">
+        <v>3278</v>
+      </c>
+      <c r="F20" s="2">
+        <v>43467</v>
+      </c>
+      <c r="G20">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D21" t="s">
+        <v>19</v>
+      </c>
+      <c r="E21" t="s">
+        <v>3277</v>
+      </c>
+      <c r="F21" s="2">
+        <v>43498</v>
+      </c>
+      <c r="G21">
+        <v>4250</v>
+      </c>
+    </row>
+    <row r="22" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D22" t="s">
+        <v>19</v>
+      </c>
+      <c r="E22" t="s">
+        <v>3280</v>
+      </c>
+      <c r="F22" s="2">
+        <v>43497</v>
+      </c>
+      <c r="G22">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="23" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3278</v>
+      </c>
+      <c r="F23" s="2">
+        <v>43498</v>
+      </c>
+      <c r="G23">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="24" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D24" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" t="s">
+        <v>3280</v>
+      </c>
+      <c r="F24" s="2">
+        <v>43498</v>
+      </c>
+      <c r="G24">
+        <v>164031</v>
+      </c>
+    </row>
+    <row r="25" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D25" t="s">
+        <v>20</v>
+      </c>
+      <c r="E25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F25" s="2">
+        <v>43559</v>
+      </c>
+      <c r="G25">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="26" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26" t="s">
+        <v>20</v>
+      </c>
+      <c r="F26" s="2">
+        <v>43556</v>
+      </c>
+      <c r="G26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="4:7" x14ac:dyDescent="0.55000000000000004">
+      <c r="F31" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:B1" xr:uid="{9C02B0CF-7044-4BDC-BE21-9BC943B0DB85}">
@@ -49199,7 +49419,7 @@
   <dimension ref="A1:F58"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>

--- a/SQL/Analysis/Column Value Frequency Analysis/Column_Frequency_Analysis.xlsx
+++ b/SQL/Analysis/Column Value Frequency Analysis/Column_Frequency_Analysis.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E35AF2F-DD59-4E9D-8AD4-B4B8C69404E0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55B574C3-0E5D-4091-895E-0CDD2FEE7DD1}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5370" yWindow="4620" windowWidth="8640" windowHeight="4404" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" firstSheet="2" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8477" uniqueCount="3285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8489" uniqueCount="3289">
   <si>
     <t>Column</t>
   </si>
@@ -9894,6 +9894,18 @@
   </si>
   <si>
     <t>(No column name)</t>
+  </si>
+  <si>
+    <t>01_01</t>
+  </si>
+  <si>
+    <t>01_02</t>
+  </si>
+  <si>
+    <t>02_01</t>
+  </si>
+  <si>
+    <t>04_01</t>
   </si>
 </sst>
 </file>
@@ -10329,7 +10341,7 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -11807,8 +11819,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A89AAAC-555C-4630-BB7D-47BBDDC79C49}">
   <dimension ref="A1:H1636"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="G36" sqref="G36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -48969,8 +48981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F5BBDBC-10EB-4D75-BE23-57ED9EEA5A2B}">
   <dimension ref="A1:G31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -49169,8 +49181,8 @@
       <c r="E15" t="s">
         <v>3281</v>
       </c>
-      <c r="F15" s="2">
-        <v>43466</v>
+      <c r="F15" s="2" t="s">
+        <v>3285</v>
       </c>
       <c r="G15">
         <v>328</v>
@@ -49183,8 +49195,8 @@
       <c r="E16" t="s">
         <v>3281</v>
       </c>
-      <c r="F16" s="2">
-        <v>43467</v>
+      <c r="F16" s="2" t="s">
+        <v>3286</v>
       </c>
       <c r="G16">
         <v>949</v>
@@ -49197,8 +49209,8 @@
       <c r="E17" t="s">
         <v>3280</v>
       </c>
-      <c r="F17" s="2">
-        <v>43466</v>
+      <c r="F17" s="2" t="s">
+        <v>3285</v>
       </c>
       <c r="G17">
         <v>96</v>
@@ -49211,8 +49223,8 @@
       <c r="E18" t="s">
         <v>3280</v>
       </c>
-      <c r="F18" s="2">
-        <v>43467</v>
+      <c r="F18" s="2" t="s">
+        <v>3286</v>
       </c>
       <c r="G18">
         <v>6548</v>
@@ -49225,8 +49237,8 @@
       <c r="E19" t="s">
         <v>3277</v>
       </c>
-      <c r="F19" s="2">
-        <v>43467</v>
+      <c r="F19" s="2" t="s">
+        <v>3286</v>
       </c>
       <c r="G19">
         <v>263</v>
@@ -49239,8 +49251,8 @@
       <c r="E20" t="s">
         <v>3278</v>
       </c>
-      <c r="F20" s="2">
-        <v>43467</v>
+      <c r="F20" s="2" t="s">
+        <v>3286</v>
       </c>
       <c r="G20">
         <v>7</v>
@@ -49253,8 +49265,8 @@
       <c r="E21" t="s">
         <v>3277</v>
       </c>
-      <c r="F21" s="2">
-        <v>43498</v>
+      <c r="F21" s="2" t="s">
+        <v>3287</v>
       </c>
       <c r="G21">
         <v>4250</v>
@@ -49267,8 +49279,8 @@
       <c r="E22" t="s">
         <v>3280</v>
       </c>
-      <c r="F22" s="2">
-        <v>43497</v>
+      <c r="F22" s="2" t="s">
+        <v>3287</v>
       </c>
       <c r="G22">
         <v>712</v>
@@ -49281,8 +49293,8 @@
       <c r="E23" t="s">
         <v>3278</v>
       </c>
-      <c r="F23" s="2">
-        <v>43498</v>
+      <c r="F23" s="2" t="s">
+        <v>3287</v>
       </c>
       <c r="G23">
         <v>1634</v>
@@ -49295,8 +49307,8 @@
       <c r="E24" t="s">
         <v>3280</v>
       </c>
-      <c r="F24" s="2">
-        <v>43498</v>
+      <c r="F24" s="2" t="s">
+        <v>3287</v>
       </c>
       <c r="G24">
         <v>164031</v>
@@ -49309,8 +49321,8 @@
       <c r="E25" t="s">
         <v>20</v>
       </c>
-      <c r="F25" s="2">
-        <v>43559</v>
+      <c r="F25" s="2" t="s">
+        <v>3288</v>
       </c>
       <c r="G25">
         <v>1099</v>
@@ -49323,8 +49335,8 @@
       <c r="E26" t="s">
         <v>20</v>
       </c>
-      <c r="F26" s="2">
-        <v>43556</v>
+      <c r="F26" s="2" t="s">
+        <v>3288</v>
       </c>
       <c r="G26">
         <v>1</v>
